--- a/相机标定.xlsx
+++ b/相机标定.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31C54B0-79ED-45B6-A77C-B94DCE9BC3D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D61BB7-19F3-42C5-A4A0-46E1439A9792}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,11 +67,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>初始化角度变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始化角度变化</t>
+    <t>alpha0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                            </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,512 +470,1124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C22"/>
+      <selection activeCell="B12" sqref="B12:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>-2</v>
       </c>
-      <c r="B2">
-        <v>1946.6745000000001</v>
-      </c>
-      <c r="C2">
-        <v>1021.8697</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1">
+        <v>572.27089999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2-1258.951</f>
+        <v>-686.68010000000004</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2">
+        <v>1024.6203</v>
+      </c>
+      <c r="F2">
+        <f>E2-1023.286</f>
+        <v>1.3343000000000984</v>
+      </c>
+      <c r="G2">
         <v>1257.905</v>
       </c>
-      <c r="E2">
+      <c r="H2">
+        <f>G2-1258.951</f>
+        <v>-1.0460000000000491</v>
+      </c>
+      <c r="I2" s="1">
         <v>336.92259999999999</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="1">
+        <f>I2-1023.286</f>
+        <v>-686.36339999999996</v>
+      </c>
+      <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>-1.8</v>
       </c>
-      <c r="B3">
-        <v>1877.3456000000001</v>
-      </c>
-      <c r="C3">
-        <v>1021.9636</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1">
+        <v>641.67539999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C22" si="0">B3-1258.951</f>
+        <v>-617.27560000000005</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <v>1024.2683999999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F22" si="1">E3-1023.286</f>
+        <v>0.98239999999998417</v>
+      </c>
+      <c r="G3">
         <v>1257.905</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <f t="shared" ref="H3:H22" si="2">G3-1258.951</f>
+        <v>-1.0460000000000491</v>
+      </c>
+      <c r="I3" s="1">
         <v>406.64260000000002</v>
       </c>
-      <c r="H3">
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J22" si="3">I3-1023.286</f>
+        <v>-616.64339999999993</v>
+      </c>
+      <c r="M3">
         <v>1258.8488</v>
       </c>
-      <c r="I3">
+      <c r="N3">
         <v>1023.2798</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <v>-0.1719</v>
       </c>
-      <c r="L3">
+      <c r="Q3">
         <v>-0.17169999999999999</v>
       </c>
-      <c r="M3">
+      <c r="R3">
         <v>-0.1716</v>
       </c>
-      <c r="N3">
+      <c r="S3">
         <v>-0.1716</v>
       </c>
-      <c r="P3">
+      <c r="U3">
         <v>-0.17150000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>-1.6</v>
       </c>
-      <c r="B4">
-        <v>1807.9256</v>
-      </c>
-      <c r="C4">
-        <v>1022.351</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>710.60839999999996</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>-548.34260000000006</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>1024.1273000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.84130000000016025</v>
+      </c>
+      <c r="G4">
         <v>1258.1378</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-0.81320000000005166</v>
+      </c>
+      <c r="I4" s="1">
         <v>475.83240000000001</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>-547.45359999999994</v>
+      </c>
+      <c r="M4">
         <v>1141.3086000000001</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>978.57060000000001</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>6.4399999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>-1.4</v>
       </c>
-      <c r="B5">
-        <v>1738.8696</v>
-      </c>
-      <c r="C5">
-        <v>1022.6993</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="1">
+        <v>779.47490000000005</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>-479.47609999999997</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <v>1024.0617999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.77580000000000382</v>
+      </c>
+      <c r="G5">
         <v>1258.1832999999999</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-0.76770000000010441</v>
+      </c>
+      <c r="I5" s="1">
         <v>544.40359999999998</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>-478.88239999999996</v>
+      </c>
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="H5">
-        <f>AVERAGE(H3:H4)</f>
+      <c r="M5">
+        <f>AVERAGE(M3:M4)</f>
         <v>1200.0787</v>
       </c>
-      <c r="I5">
-        <f>AVERAGE(I3:I4)</f>
+      <c r="N5">
+        <f>AVERAGE(N3:N4)</f>
         <v>1000.9252</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>-1.2</v>
       </c>
-      <c r="B6">
-        <v>1670.1728000000001</v>
-      </c>
-      <c r="C6">
-        <v>1022.8191</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="1">
+        <v>848.04420000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>-410.90679999999998</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <v>1023.9664</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.68040000000007694</v>
+      </c>
+      <c r="G6">
         <v>1258.2166999999999</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-0.73430000000007567</v>
+      </c>
+      <c r="I6" s="1">
         <v>612.62570000000005</v>
       </c>
-      <c r="H6">
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>-410.66029999999989</v>
+      </c>
+      <c r="M6">
         <v>618.75199999999995</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>-236.07499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>-1</v>
       </c>
-      <c r="B7">
-        <v>1601.5679</v>
-      </c>
-      <c r="C7">
-        <v>1022.6643</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="1">
+        <v>916.51239999999996</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>-342.43860000000006</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <v>1023.881</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.59500000000002728</v>
+      </c>
+      <c r="G7">
         <v>1258.3655000000001</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-0.58549999999991087</v>
+      </c>
+      <c r="I7" s="1">
         <v>681.22659999999996</v>
       </c>
-      <c r="H7">
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>-342.05939999999998</v>
+      </c>
+      <c r="M7">
         <f>4*3600/(1946.6745-572.2709)</f>
         <v>10.477271741721282</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>-0.8</v>
       </c>
-      <c r="B8">
-        <v>1533.0248999999999</v>
-      </c>
-      <c r="C8">
-        <v>1022.7746</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="1">
+        <v>984.88570000000004</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>-274.06529999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8-B7</f>
+        <v>68.373300000000086</v>
+      </c>
+      <c r="E8">
+        <v>1023.7981</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.5121000000000322</v>
+      </c>
+      <c r="G8">
         <v>1258.5376000000001</v>
       </c>
-      <c r="E8">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-0.41339999999991051</v>
+      </c>
+      <c r="I8" s="1">
         <v>749.29349999999999</v>
       </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>-273.99249999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>-0.6</v>
       </c>
-      <c r="B9">
-        <v>1464.5352</v>
-      </c>
-      <c r="C9">
-        <v>1023.14</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1">
+        <v>1053.3876</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>-205.5634</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:D22" si="4">B9-B8</f>
+        <v>68.501899999999978</v>
+      </c>
+      <c r="E9">
+        <v>1023.7714999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.48550000000000182</v>
+      </c>
+      <c r="G9">
         <v>1258.6197999999999</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-0.33120000000008076</v>
+      </c>
+      <c r="I9" s="1">
         <v>817.70709999999997</v>
       </c>
-      <c r="H9">
-        <f>(C2-C22)/(B2-B22)</f>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>-205.57889999999998</v>
+      </c>
+      <c r="M9">
+        <f>(E2-E22)/(B2-B22)</f>
         <v>-2.0013044203319001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>-0.4</v>
       </c>
-      <c r="B10">
-        <v>1396.0594000000001</v>
-      </c>
-      <c r="C10">
-        <v>1023.3638</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="1">
+        <v>1121.8461</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>-137.10490000000004</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="4"/>
+        <v>68.458499999999958</v>
+      </c>
+      <c r="E10">
+        <v>1023.686</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.40000000000009095</v>
+      </c>
+      <c r="G10">
         <v>1258.7497000000001</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-0.20129999999994652</v>
+      </c>
+      <c r="I10" s="1">
         <v>886.34360000000004</v>
       </c>
-      <c r="H10">
-        <f>(D2-D22)/(E22-E2)</f>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>-136.94239999999991</v>
+      </c>
+      <c r="M10">
+        <f>(G2-G22)/(I22-I2)</f>
         <v>-1.6684282217637137E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>-0.2</v>
       </c>
-      <c r="B11">
-        <v>1327.4340999999999</v>
-      </c>
-      <c r="C11">
-        <v>1023.3619</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="1">
+        <v>1190.4358</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>-68.51520000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="4"/>
+        <v>68.589699999999993</v>
+      </c>
+      <c r="E11">
+        <v>1023.5436999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.25769999999999982</v>
+      </c>
+      <c r="G11">
         <v>1258.8444</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-0.1066000000000713</v>
+      </c>
+      <c r="I11" s="1">
         <v>955.05259999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>-68.233399999999961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1258.9511</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9999999974897946E-5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="4"/>
+        <v>68.515300000000025</v>
+      </c>
+      <c r="E12">
         <v>1023.5359</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.2499000000000251</v>
+      </c>
+      <c r="G12">
         <v>1258.9086</v>
       </c>
-      <c r="E12">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-4.2400000000043292E-2</v>
+      </c>
+      <c r="I12" s="1">
         <v>1023.2862</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000006348273E-4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>-0.1716</v>
+      </c>
+      <c r="N12">
+        <f>M12*3600</f>
+        <v>-617.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.2</v>
       </c>
-      <c r="B13">
-        <v>1190.4358</v>
-      </c>
-      <c r="C13">
-        <v>1023.5436999999999</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="1">
+        <v>1327.4340999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>68.483099999999922</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="4"/>
+        <v>68.482999999999947</v>
+      </c>
+      <c r="E13">
+        <v>1023.3638</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>7.7800000000024738E-2</v>
+      </c>
+      <c r="G13">
         <v>1258.971</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="I13" s="1">
         <v>1091.7361000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
+        <v>68.450100000000134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="N13">
+        <f>M13*3600</f>
+        <v>232.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.4</v>
       </c>
-      <c r="B14">
-        <v>1121.8461</v>
-      </c>
-      <c r="C14">
-        <v>1023.686</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="1">
+        <v>1396.0594000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>137.10840000000007</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="4"/>
+        <v>68.625300000000152</v>
+      </c>
+      <c r="E14">
+        <v>1023.3619</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>7.590000000004693E-2</v>
+      </c>
+      <c r="G14">
         <v>1259.1035999999999</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.15259999999989304</v>
+      </c>
+      <c r="I14" s="1">
         <v>1160.3552</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>137.06920000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.6</v>
       </c>
-      <c r="B15">
-        <v>1053.3876</v>
-      </c>
-      <c r="C15">
-        <v>1023.7714999999999</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="1">
+        <v>1464.5352</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>205.58420000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="4"/>
+        <v>68.475799999999936</v>
+      </c>
+      <c r="E15">
+        <v>1023.14</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-0.14599999999995816</v>
+      </c>
+      <c r="G15">
         <v>1259.1274000000001</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.17640000000005784</v>
+      </c>
+      <c r="I15" s="1">
         <v>1229.0796</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
+        <v>205.79360000000008</v>
+      </c>
+      <c r="M15">
+        <f>0.0727-M13</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.8</v>
       </c>
-      <c r="B16">
-        <v>984.88570000000004</v>
-      </c>
-      <c r="C16">
-        <v>1023.881</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="1">
+        <v>1533.0248999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>274.07389999999987</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="4"/>
+        <v>68.489699999999857</v>
+      </c>
+      <c r="E16">
+        <v>1022.8191</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-0.46689999999989595</v>
+      </c>
+      <c r="G16">
         <v>1259.2706000000001</v>
       </c>
-      <c r="E16">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.31960000000003674</v>
+      </c>
+      <c r="I16" s="1">
         <v>1297.4919</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J16" s="1">
+        <f t="shared" si="3"/>
+        <v>274.20590000000004</v>
+      </c>
+      <c r="M16">
+        <f>M15*3600</f>
+        <v>28.800000000000026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17">
-        <v>916.51239999999996</v>
-      </c>
-      <c r="C17">
-        <v>1023.7981</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="1">
+        <v>1601.5679</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>342.61689999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="4"/>
+        <v>68.54300000000012</v>
+      </c>
+      <c r="E17">
+        <v>1022.7746</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-0.51139999999998054</v>
+      </c>
+      <c r="G17">
         <v>1259.3228999999999</v>
       </c>
-      <c r="E17">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.37189999999986867</v>
+      </c>
+      <c r="I17" s="1">
         <v>1366.2628</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
+        <v>342.97680000000003</v>
+      </c>
+      <c r="L17">
+        <f>I12+(I13-I12)/0.2*0.008</f>
+        <v>1026.0241960000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1.2</v>
       </c>
-      <c r="B18">
-        <v>848.04420000000005</v>
-      </c>
-      <c r="C18">
-        <v>1024.0617999999999</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="1">
+        <v>1670.1728000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>411.22180000000003</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="4"/>
+        <v>68.604900000000043</v>
+      </c>
+      <c r="E18">
+        <v>1022.6993</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-0.58669999999995071</v>
+      </c>
+      <c r="G18">
         <v>1259.5645999999999</v>
       </c>
-      <c r="E18">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.61359999999990578</v>
+      </c>
+      <c r="I18" s="1">
         <v>1435.0304000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>411.74440000000016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1.4</v>
       </c>
-      <c r="B19">
-        <v>779.47490000000005</v>
-      </c>
-      <c r="C19">
-        <v>1023.9664</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="1">
+        <v>1738.8696</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>479.91859999999997</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="4"/>
+        <v>68.696799999999939</v>
+      </c>
+      <c r="E19">
+        <v>1022.6643</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-0.62169999999991887</v>
+      </c>
+      <c r="G19">
         <v>1259.7374</v>
       </c>
-      <c r="E19">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.7863999999999578</v>
+      </c>
+      <c r="I19" s="1">
         <v>1504.0820000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>480.79600000000016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1.6</v>
       </c>
-      <c r="B20">
-        <v>710.60839999999996</v>
-      </c>
-      <c r="C20">
-        <v>1024.1273000000001</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="1">
+        <v>1807.9256</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>548.97460000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="4"/>
+        <v>69.05600000000004</v>
+      </c>
+      <c r="E20">
+        <v>1022.351</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-0.93499999999994543</v>
+      </c>
+      <c r="G20">
         <v>1259.6833999999999</v>
       </c>
-      <c r="E20">
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.73239999999987049</v>
+      </c>
+      <c r="I20" s="1">
         <v>1573.2067999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>549.92079999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1.8</v>
       </c>
-      <c r="B21">
-        <v>641.67539999999997</v>
-      </c>
-      <c r="C21">
-        <v>1024.2683999999999</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="1">
+        <v>1877.3456000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>618.39460000000008</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="4"/>
+        <v>69.420000000000073</v>
+      </c>
+      <c r="E21">
+        <v>1021.9636</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>-1.3223999999999023</v>
+      </c>
+      <c r="G21">
         <v>1259.9870000000001</v>
       </c>
-      <c r="E21">
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.0360000000000582</v>
+      </c>
+      <c r="I21" s="1">
         <v>1642.5091</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>572.27089999999998</v>
-      </c>
-      <c r="C22">
-        <v>1024.6203</v>
-      </c>
-      <c r="D22">
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>619.22310000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1946.6745000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>687.72350000000006</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="4"/>
+        <v>69.328899999999976</v>
+      </c>
+      <c r="E22">
+        <v>1021.8697</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-1.4162999999999784</v>
+      </c>
+      <c r="G22">
         <v>1260.1987999999999</v>
       </c>
-      <c r="E22">
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>1.2477999999998701</v>
+      </c>
+      <c r="I22" s="1">
         <v>1711.7494999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>688.46349999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23">
         <v>572.27089999999998</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>575</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="E23">
+      <c r="I23">
         <v>336.92259999999999</v>
       </c>
-      <c r="F23">
+      <c r="K23">
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24">
         <v>1946.6745000000001</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>1944</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
+      <c r="I24">
         <v>1711.7494999999999</v>
       </c>
-      <c r="F24">
+      <c r="K24">
         <v>1709</v>
       </c>
     </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <f>AVERAGE(B20:B21)</f>
+        <v>1842.6356000000001</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(E20:E21)</f>
+        <v>1022.1573000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I27">
+        <v>1946.6745000000001</v>
+      </c>
+      <c r="K27">
+        <v>1021.8697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I28">
+        <v>1877.3456000000001</v>
+      </c>
+      <c r="K28">
+        <v>1021.9636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I29">
+        <v>1807.9256</v>
+      </c>
+      <c r="K29">
+        <v>1022.351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I30">
+        <v>1738.8696</v>
+      </c>
+      <c r="K30">
+        <v>1022.6993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I31">
+        <v>1670.1728000000001</v>
+      </c>
+      <c r="K31">
+        <v>1022.8191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I32">
+        <v>1601.5679</v>
+      </c>
+      <c r="K32">
+        <v>1022.6643</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I33">
+        <v>1533.0248999999999</v>
+      </c>
+      <c r="K33">
+        <v>1022.7746</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I34">
+        <v>1464.5352</v>
+      </c>
+      <c r="K34">
+        <v>1023.14</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I35">
+        <v>1396.0594000000001</v>
+      </c>
+      <c r="K35">
+        <v>1023.3638</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I36">
+        <v>1327.4340999999999</v>
+      </c>
+      <c r="K36">
+        <v>1023.3619</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I37">
+        <v>1258.9511</v>
+      </c>
+      <c r="K37">
+        <v>1023.5359</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I38">
+        <v>1190.4358</v>
+      </c>
+      <c r="K38">
+        <v>1023.5436999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I39">
+        <v>1121.8461</v>
+      </c>
+      <c r="K39">
+        <v>1023.686</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I40">
+        <v>1053.3876</v>
+      </c>
+      <c r="K40">
+        <v>1023.7714999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I41">
+        <v>984.88570000000004</v>
+      </c>
+      <c r="K41">
+        <v>1023.881</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I42">
+        <v>916.51239999999996</v>
+      </c>
+      <c r="K42">
+        <v>1023.7981</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I43">
+        <v>848.04420000000005</v>
+      </c>
+      <c r="K43">
+        <v>1024.0617999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I44">
+        <v>779.47490000000005</v>
+      </c>
+      <c r="K44">
+        <v>1023.9664</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I45">
+        <v>710.60839999999996</v>
+      </c>
+      <c r="K45">
+        <v>1024.1273000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I46">
+        <v>641.67539999999997</v>
+      </c>
+      <c r="K46">
+        <v>1024.2683999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I47">
+        <v>572.27089999999998</v>
+      </c>
+      <c r="K47">
+        <v>1024.6203</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="E2:E22">
+    <sortCondition descending="1" ref="E2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
